--- a/biology/Médecine/Classe_ATC_S03/Classe_ATC_S03.xlsx
+++ b/biology/Médecine/Classe_ATC_S03/Classe_ATC_S03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC S03, dénommée « Préparations utilisées en ophtalmologie et en otologie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC S03, dénommée « Préparations utilisées en ophtalmologie et en otologie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S03AA Anti-infectieux
-S03AA01 Néomycine
+          <t>S03AA Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S03AA01 Néomycine
 S03AA02 Tétracycline
 S03AA03 Polymyxine B
 S03AA04 Chlorhexidine
@@ -552,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S03BA Corticoïdes
-S03BA01 Dexaméthasone
+          <t>S03BA Corticoïdes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S03BA01 Dexaméthasone
 S03BA02 Prednisolone
 S03BA03 Bêtaméthasone</t>
         </is>
@@ -585,8 +607,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S03CA Corticoïdes et anti-infectieux en association
-S03CA01 Dexaméthasone et anti-infectieux
+          <t>S03CA Corticoïdes et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S03CA01 Dexaméthasone et anti-infectieux
 S03CA02 Prednisolone et anti-infectieux
 S03CA04 Hydrocortisone et anti-infectieux
 S03CA05 Fludrocortisone et anti-infectieux
@@ -618,7 +645,9 @@
           <t>S03D Autres préparations ophtalmologiques et otologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Classe vide.</t>
         </is>
